--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Instructions</t>
   </si>
@@ -200,6 +200,23 @@
     <t>**Given** that there are multiple opponent's pieces in my path with connecting empty spaces behind them **when** I attempt to move my piece **then** I expect to jump over multiple pieces and capture them.
 **Given** that I single-jump over one opponent's piece **when** there are more jumpable opponent's pieces from my current position, **then** I expect to have to jump over those pieces as well.
 **Given** that there are multiple multi-jump options available **when** it comes time to take my turn **then** I expect to be able to choose one.</t>
+  </si>
+  <si>
+    <t>Testing Passed 
+-IF
+Regression testing passed 4/1/2018
+-LD</t>
+  </si>
+  <si>
+    <t>Testing pushed to Sprint 3</t>
+  </si>
+  <si>
+    <t>Testing passed, all acceptance criteria functional
+-IF</t>
+  </si>
+  <si>
+    <t>Testing passed, all acceptance criteria functional 3/28/18
+-AH</t>
   </si>
 </sst>
 </file>
@@ -801,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -853,6 +870,9 @@
       <c r="B7" s="17" t="s">
         <v>33</v>
       </c>
+      <c r="C7" s="19" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="108.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="16"/>
@@ -872,6 +892,9 @@
       <c r="B10" s="9" t="s">
         <v>37</v>
       </c>
+      <c r="C10" s="19" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
@@ -880,6 +903,9 @@
       <c r="B11" s="19" t="s">
         <v>39</v>
       </c>
+      <c r="C11" s="19" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="215" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
@@ -888,6 +914,9 @@
       <c r="B12" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="C12" s="19" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
@@ -896,6 +925,9 @@
       <c r="B13" s="9" t="s">
         <v>43</v>
       </c>
+      <c r="C13" s="19" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="172.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
@@ -904,6 +936,9 @@
       <c r="B14" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C14" s="19" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
@@ -911,6 +946,9 @@
       </c>
       <c r="B15" s="9" t="s">
         <v>47</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="108">
   <si>
     <t>Instructions</t>
   </si>
@@ -2831,6 +2831,9 @@
   </si>
   <si>
     <t>Failed, bug during rerouting 4/16/2018 (LD)</t>
+  </si>
+  <si>
+    <t>Passed 4/17/2018 (LD)</t>
   </si>
   <si>
     <t>Passed 4/16/2018 (LD)</t>
@@ -4007,9 +4010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G37" sqref="G37"/>
+      <selection pane="topRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7469,7 +7472,7 @@
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H30" s="27"/>
       <c r="I30" s="25"/>
@@ -8496,7 +8499,7 @@
         <v>72</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:1025" ht="46.5" x14ac:dyDescent="0.35">
@@ -8505,7 +8508,7 @@
         <v>73</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:1025" ht="31" x14ac:dyDescent="0.35">
@@ -8514,7 +8517,7 @@
         <v>74</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1025" ht="46.5" x14ac:dyDescent="0.35">
@@ -8523,7 +8526,7 @@
         <v>75</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:1025" s="26" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
@@ -8537,7 +8540,9 @@
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
+      <c r="G35" s="27" t="s">
+        <v>106</v>
+      </c>
       <c r="H35" s="27"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
@@ -9562,14 +9567,18 @@
       <c r="B36" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="G36" s="27"/>
+      <c r="G36" s="27" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="37" spans="1:1025" ht="31" x14ac:dyDescent="0.35">
       <c r="A37" s="58"/>
       <c r="B37" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G37" s="27"/>
+      <c r="G37" s="27" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="38" spans="1:1025" s="26" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A38" s="31" t="s">

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="108">
   <si>
     <t>Instructions</t>
   </si>
@@ -4010,9 +4010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G36" sqref="G36"/>
+      <selection pane="topRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9591,7 +9591,9 @@
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
+      <c r="G38" s="27" t="s">
+        <v>106</v>
+      </c>
       <c r="H38" s="27"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
@@ -10622,7 +10624,9 @@
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
+      <c r="G39" s="27" t="s">
+        <v>106</v>
+      </c>
       <c r="H39" s="27"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
@@ -11647,14 +11651,18 @@
       <c r="B40" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="27"/>
+      <c r="G40" s="27" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="41" spans="1:1025" ht="31" x14ac:dyDescent="0.35">
       <c r="A41" s="50"/>
       <c r="B41" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="27"/>
+      <c r="G41" s="27" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="42" spans="1:1025" s="26" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A42" s="28" t="s">

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -4012,7 +4012,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G41" sqref="G41"/>
+      <selection pane="topRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="114">
   <si>
     <t>Instructions</t>
   </si>
@@ -2958,6 +2958,9 @@
       </rPr>
       <t xml:space="preserve"> I expect to see a list of games that I can watch.</t>
     </r>
+  </si>
+  <si>
+    <t>Passed 4/18/2018 (LD)</t>
   </si>
   <si>
     <r>
@@ -4194,9 +4197,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H42" sqref="H42"/>
+      <selection pane="topRight" activeCell="H45" sqref="H45:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4253,7 +4256,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
@@ -4269,7 +4272,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
@@ -4285,7 +4288,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="62" x14ac:dyDescent="0.35">
@@ -4301,7 +4304,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
       <c r="H5" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
@@ -4317,7 +4320,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
@@ -4333,7 +4336,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
@@ -4349,7 +4352,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="5"/>
       <c r="H8" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
@@ -4365,7 +4368,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="47" thickBot="1" x14ac:dyDescent="0.4">
@@ -4381,7 +4384,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="31" x14ac:dyDescent="0.35">
@@ -4399,7 +4402,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="8"/>
       <c r="H11" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
@@ -4415,7 +4418,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
@@ -4431,7 +4434,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="5"/>
       <c r="H13" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="93" x14ac:dyDescent="0.35">
@@ -4447,7 +4450,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
       <c r="H14" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="31" x14ac:dyDescent="0.35">
@@ -4463,7 +4466,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="5"/>
       <c r="H15" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="31" x14ac:dyDescent="0.35">
@@ -4479,7 +4482,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="5"/>
       <c r="H16" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:1025" ht="62" x14ac:dyDescent="0.35">
@@ -4495,7 +4498,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:1025" ht="46.5" x14ac:dyDescent="0.35">
@@ -4509,11 +4512,11 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:1025" s="25" customFormat="1" ht="31" x14ac:dyDescent="0.35">
@@ -4530,7 +4533,7 @@
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
@@ -5559,7 +5562,7 @@
         <v>42</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:1025" s="25" customFormat="1" ht="56" x14ac:dyDescent="0.35">
@@ -5577,7 +5580,7 @@
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
@@ -6605,7 +6608,7 @@
         <v>41</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:1025" ht="31" x14ac:dyDescent="0.35">
@@ -6616,7 +6619,7 @@
         <v>41</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:1025" ht="31" x14ac:dyDescent="0.35">
@@ -6627,7 +6630,7 @@
         <v>41</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:1025" ht="62" x14ac:dyDescent="0.35">
@@ -6638,7 +6641,7 @@
         <v>41</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:1025" ht="31" x14ac:dyDescent="0.35">
@@ -6649,7 +6652,7 @@
         <v>41</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:1025" ht="46.5" x14ac:dyDescent="0.35">
@@ -6660,7 +6663,7 @@
         <v>41</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:1025" s="25" customFormat="1" ht="31" x14ac:dyDescent="0.35">
@@ -6675,7 +6678,7 @@
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
       <c r="H28" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
@@ -7701,7 +7704,7 @@
         <v>70</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:1025" s="25" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
@@ -13986,7 +13989,9 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
@@ -15010,10 +15015,16 @@
       <c r="B46" s="17" t="s">
         <v>107</v>
       </c>
+      <c r="H46" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="47" spans="1:1025" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="49"/>
       <c r="B47" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -15029,7 +15040,7 @@
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A35:A37"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E598 C2:C598 G2:G27 G48:G598 H28:H47">
+  <conditionalFormatting sqref="E2:E598 C2:C598 G2:G27 G48:G598 H28:H48">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -15037,7 +15048,7 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D18 D21:D598 H48:H599 H1:H27">
+  <conditionalFormatting sqref="D2:D18 D21:D598 H49:H599 H1:H27">
     <cfRule type="expression" dxfId="5" priority="4">
       <formula>AND(ISBLANK(D1),C1="Pass")</formula>
     </cfRule>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="114">
   <si>
     <t>Instructions</t>
   </si>
@@ -4197,9 +4197,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H45" sqref="H45:H47"/>
+      <selection pane="topRight" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -11918,7 +11918,9 @@
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
-      <c r="H42" s="26"/>
+      <c r="H42" s="26" t="s">
+        <v>109</v>
+      </c>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
@@ -12946,7 +12948,9 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="H43" s="26" t="s">
+        <v>109</v>
+      </c>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
@@ -13976,7 +13980,9 @@
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
-      <c r="H44" s="26"/>
+      <c r="H44" s="26" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="45" spans="1:1025" s="25" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="48" t="s">
